--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2693.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2693.xlsx
@@ -354,7 +354,7 @@
         <v>2.418386035921902</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.335273874950367</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2693.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2693.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.163362569793875</v>
+        <v>0.8680022954940796</v>
       </c>
       <c r="B1">
-        <v>2.418386035921902</v>
+        <v>1.443885803222656</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.891918182373047</v>
       </c>
       <c r="D1">
-        <v>2.335273874950367</v>
+        <v>2.615260601043701</v>
       </c>
       <c r="E1">
-        <v>1.215389289285854</v>
+        <v>1.583036780357361</v>
       </c>
     </row>
   </sheetData>
